--- a/zDocs/やったことメモ.xlsx
+++ b/zDocs/やったことメモ.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
   <si>
     <t>Gemfileの編集</t>
     <rPh sb="8" eb="10">
@@ -254,13 +254,6 @@
   </si>
   <si>
     <t>-- step2へ --</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>managementのトップページを設置</t>
-    <rPh sb="18" eb="20">
-      <t>セッチ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -716,12 +709,109 @@
     <t>fonts⇒vendor/assets/へディレクトリごとコピー</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>レイアウト決定ロジックを追加</t>
+    <rPh sb="5" eb="7">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/controllers/application_controller.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>params[:controller]の値からmanagementとstaffに振り分ける</t>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用レイアウト配置</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/views/layouts/management.html.erb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者用レイアウト配置</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウシャヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/views/layouts/staff.html.erb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者のトップページを設置</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者のトップページを設置</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>applicationのレイアウトを削除</t>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/views/layouts/application.html.erb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/controllers/staff/top_controller.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/views/staff/top/index.html.erb</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +837,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -846,7 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -866,6 +963,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1193,7 +1291,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1203,7 +1301,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1311,7 +1409,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
@@ -1438,199 +1536,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>121</v>
+      <c r="C11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>120</v>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E23" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E27" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D42" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" t="s">
-        <v>117</v>
+      <c r="B43" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" t="s">
-        <v>118</v>
+      <c r="C44" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I45" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>114</v>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C63" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1650,167 +1819,167 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1838,34 +2007,34 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1876,7 +2045,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1886,7 +2055,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -2077,31 +2246,31 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/zDocs/やったことメモ.xlsx
+++ b/zDocs/やったことメモ.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="step1" sheetId="1" r:id="rId1"/>
     <sheet name="step2" sheetId="2" r:id="rId2"/>
-    <sheet name="Gemfile" sheetId="3" r:id="rId3"/>
-    <sheet name="settings.yml" sheetId="4" r:id="rId4"/>
-    <sheet name="Memo" sheetId="5" r:id="rId5"/>
+    <sheet name="エラー処理" sheetId="6" r:id="rId3"/>
+    <sheet name="Gemfile" sheetId="3" r:id="rId4"/>
+    <sheet name="settings.yml" sheetId="4" r:id="rId5"/>
+    <sheet name="Memo" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
   <si>
     <t>Gemfileの編集</t>
     <rPh sb="8" eb="10">
@@ -804,6 +805,119 @@
   </si>
   <si>
     <t>app/views/staff/top/index.html.erb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>productionモード用にシークレットキーを環境変数として追加</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.bash_profileに追記</t>
+    <rPh sb="14" eb="16">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外補足処理の追記</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面の作成</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>productionモード用のデータベース設定</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export SECRET_KEY_BASE="azsxdcfvgbhnjmk,l.;/"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export FWM_DATABASE_PASSWORD="zenk0414"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>database.ymlのproduction部分を編集</t>
+    <rPh sb="23" eb="25">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error_400.html.erb</t>
+  </si>
+  <si>
+    <t>error_401.html.erb</t>
+  </si>
+  <si>
+    <t>error_403.html.erb</t>
+  </si>
+  <si>
+    <t>error_404.html.erb</t>
+  </si>
+  <si>
+    <t>error_500.html.erb</t>
+  </si>
+  <si>
+    <t>app/views/errors</t>
+  </si>
+  <si>
+    <t>ActionController::RoutingError例外をraiseさせる</t>
+    <rPh sb="30" eb="32">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/controllers/errors_controller.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>404ルートエラーの設定</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1536,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I64"/>
+  <dimension ref="B2:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1794,6 +1908,41 @@
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1804,6 +1953,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C34"/>
   <sheetViews>
@@ -1991,7 +2220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G27"/>
   <sheetViews>
@@ -2228,7 +2457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>

--- a/zDocs/やったことメモ.xlsx
+++ b/zDocs/やったことメモ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="step1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="177">
   <si>
     <t>Gemfileの編集</t>
     <rPh sb="8" eb="10">
@@ -632,19 +632,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/twbs/bootstrap-sass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>gem 'sass-rails', '&gt;= 3.2'</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>bundle install --path vendor/bundle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#gem 'bootstrap-sass', '~&gt; 3.3.1'</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -682,10 +674,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bootstrap-3.3.1-dist.zipをダウンロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>解凍し以下のようにコピー</t>
     <rPh sb="3" eb="5">
       <t>イカ</t>
@@ -918,6 +906,63 @@
     <rPh sb="10" eb="12">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap-3.3.1-dist.zipをダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gemfileに以下を追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gem 'bootstrap-sass', '~&gt; 3.3.0'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bundle install</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gem 'bootstrap-sass', '~&gt; 3.3.0'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error.css.scss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>management.css.scss</t>
+  </si>
+  <si>
+    <t>staff.css.scss</t>
+  </si>
+  <si>
+    <t>@import "bootstrap-sprockets";</t>
+  </si>
+  <si>
+    <t>@import "bootstrap";</t>
+  </si>
+  <si>
+    <t>これはBootstrapインポート用なので以下を記載</t>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bsimport.css.scss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rails.application.config.assets.precompile += %w( management.css staff.css error.css bsimport.css )</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -963,7 +1008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +1018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1078,6 +1129,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1415,7 +1467,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1650,17 +1702,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I74"/>
+  <dimension ref="B2:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -1685,12 +1737,12 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
@@ -1700,7 +1752,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
@@ -1723,226 +1775,290 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+    <row r="18" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
+    <row r="19" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+    <row r="20" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
+    <row r="25" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D23" t="s">
+    <row r="26" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D24" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D25" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D46" t="s">
-        <v>108</v>
-      </c>
-      <c r="I46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D47" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D71" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D55" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D61" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C76" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D64" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C67" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C74" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1967,62 +2083,62 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2036,9 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2075,16 +2189,14 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>121</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
@@ -2213,9 +2325,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
